--- a/target/test-classes/Exceldata/InputData.xlsx
+++ b/target/test-classes/Exceldata/InputData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="9480"/>
+    <workbookView windowWidth="21000" windowHeight="8760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>number</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Samyuktha</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -42,14 +60,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,153 +516,154 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -971,33 +983,54 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.7777777777778"/>
+    <col min="1" max="1" width="12.8888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>7397783778</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>76457263</v>
+        <v>76755645454</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="abc@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/target/test-classes/Exceldata/InputData.xlsx
+++ b/target/test-classes/Exceldata/InputData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8760"/>
+    <workbookView windowWidth="21000" windowHeight="9480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>number</t>
   </si>
@@ -35,30 +35,60 @@
     <t>First Name</t>
   </si>
   <si>
-    <t>Last Name</t>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Relation</t>
   </si>
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>Samyuktha</t>
+    <t>SamyukthanCS</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t>abc@gmail.com</t>
+    <t xml:space="preserve">03/12/2003
+</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>Pranav</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/12/2021
+</t>
+  </si>
+  <si>
+    <t>cousin</t>
+  </si>
+  <si>
+    <t>pranav@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -661,9 +691,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -983,18 +1025,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.8888888888889"/>
+    <col min="4" max="4" width="17.7777777777778"/>
+    <col min="6" max="7" width="13.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1007,29 +1051,61 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" ht="28.8" spans="1:7">
       <c r="A2">
         <v>7397783778</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
+    <row r="3" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A3" s="2">
         <v>76755645454</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="abc@gmail.com"/>
+    <hyperlink ref="G3" r:id="rId1" display="pranav@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
